--- a/NformTester/NformTester/keywordscripts/TST1053_ConfigureWriteFileAction.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1053_ConfigureWriteFileAction.xlsx
@@ -1204,7 +1204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7601" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7618" uniqueCount="842">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4743,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B6" activeCellId="1" sqref="B5 B6"/>
+    <sheetView tabSelected="1" topLeftCell="B106" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4955,7 +4955,7 @@
         <v>756</v>
       </c>
       <c r="B7" s="3">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -8126,11 +8126,21 @@
       <c r="O127" s="11"/>
     </row>
     <row r="128" spans="3:15">
-      <c r="C128" s="4"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="12"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
+      <c r="C128" s="4">
+        <v>127</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
@@ -8141,11 +8151,21 @@
       <c r="O128" s="11"/>
     </row>
     <row r="129" spans="3:15">
-      <c r="C129" s="4"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="12"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
+      <c r="C129" s="4">
+        <v>128</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
@@ -8156,12 +8176,24 @@
       <c r="O129" s="11"/>
     </row>
     <row r="130" spans="3:15">
-      <c r="C130" s="4"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="12"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="12"/>
+      <c r="C130" s="4">
+        <v>129</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>814</v>
+      </c>
       <c r="I130" s="12"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
@@ -8171,11 +8203,21 @@
       <c r="O130" s="11"/>
     </row>
     <row r="131" spans="3:15">
-      <c r="C131" s="4"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="12"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
+      <c r="C131" s="4">
+        <v>130</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H131" s="12"/>
       <c r="I131" s="12"/>
       <c r="J131" s="4"/>
